--- a/data/trans_orig/P1427-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3D7D6C-CD25-485C-9656-4E8BA85B8743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A05813-7006-4EA5-95F1-053BA85C8549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{989D39FD-4BCF-4446-A14F-3D49A43A9311}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{747C4A01-30DA-45A2-8D33-081146C0EDB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="290">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,817 +91,823 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3DFD29-8D48-4A6E-BCE4-35EAB1626443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AF779C-5528-4B9C-B561-3F1D57A41540}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,10 +1786,10 @@
         <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,13 +1804,13 @@
         <v>677826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>664</v>
@@ -1813,10 +1819,10 @@
         <v>706669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1828,13 +1834,13 @@
         <v>1384495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,7 +1896,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1902,13 +1908,13 @@
         <v>2402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1917,13 +1923,13 @@
         <v>3184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1935,10 +1941,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,10 +1959,10 @@
         <v>612215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1968,13 +1974,13 @@
         <v>611080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>1082</v>
@@ -1986,10 +1992,10 @@
         <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2057,13 +2063,13 @@
         <v>9649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2072,13 +2078,13 @@
         <v>13760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2087,13 +2093,13 @@
         <v>23409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2114,13 @@
         <v>419780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>393</v>
@@ -2123,13 +2129,13 @@
         <v>434040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>777</v>
@@ -2138,13 +2144,13 @@
         <v>853820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2206,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2212,13 +2218,13 @@
         <v>50960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2227,13 +2233,13 @@
         <v>73158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -2242,13 +2248,13 @@
         <v>124119</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2269,13 @@
         <v>508677</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>628</v>
@@ -2278,13 +2284,13 @@
         <v>669817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -2293,13 +2299,13 @@
         <v>1178493</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2373,13 @@
         <v>67982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -2382,13 +2388,13 @@
         <v>94052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2397,13 +2403,13 @@
         <v>162034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2424,13 @@
         <v>3358797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>3211</v>
@@ -2433,28 +2439,28 @@
         <v>3461046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>6359</v>
       </c>
       <c r="N23" s="7">
-        <v>6819843</v>
+        <v>6819844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2502,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72745150-ED84-4FC1-B1B1-52013FCD5815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A817094-4C3D-4720-8746-C1C346C011A4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2662,7 +2668,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2677,7 +2683,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2692,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2725,7 +2731,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2740,7 +2746,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2817,7 +2823,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2832,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2841,13 +2847,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2871,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2880,7 +2886,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2892,10 +2898,10 @@
         <v>1153055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -2972,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2981,13 +2987,13 @@
         <v>1766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2996,13 +3002,13 @@
         <v>1766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3026,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3032,10 +3038,10 @@
         <v>659620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3047,10 +3053,10 @@
         <v>1328717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3109,7 +3115,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3127,7 +3133,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3136,13 +3142,13 @@
         <v>3186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3151,13 +3157,13 @@
         <v>3186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3181,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3187,25 +3193,25 @@
         <v>645891</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>1181</v>
       </c>
       <c r="N14" s="7">
-        <v>1291939</v>
+        <v>1291940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>35</v>
@@ -3250,7 +3256,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -3264,7 +3270,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3276,13 +3282,13 @@
         <v>3127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3291,13 +3297,13 @@
         <v>11554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3306,13 +3312,13 @@
         <v>14680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3333,13 @@
         <v>474791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -3342,13 +3348,13 @@
         <v>485295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -3357,13 +3363,13 @@
         <v>960087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3425,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3431,13 +3437,13 @@
         <v>32261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -3446,13 +3452,13 @@
         <v>62975</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -3461,13 +3467,13 @@
         <v>95236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3488,13 @@
         <v>559067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>601</v>
@@ -3497,13 +3503,13 @@
         <v>714956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>1193</v>
@@ -3512,13 +3518,13 @@
         <v>1274023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3592,13 @@
         <v>35388</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -3601,13 +3607,13 @@
         <v>80465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -3616,13 +3622,13 @@
         <v>115853</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3643,13 @@
         <v>3358962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
         <v>3268</v>
@@ -3652,13 +3658,13 @@
         <v>3464077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>6461</v>
@@ -3667,13 +3673,13 @@
         <v>6823039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3735,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C984CC-86DB-4BDA-82D9-4A080ED7D0AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D547C2-AAD5-493C-9CED-C54AC043053B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,7 +3774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3881,7 +3887,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3890,13 +3896,13 @@
         <v>2797</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3905,13 +3911,13 @@
         <v>2797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,7 +3935,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3941,10 +3947,10 @@
         <v>352160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3956,10 +3962,10 @@
         <v>729839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4030,13 +4036,13 @@
         <v>2168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4051,7 +4057,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4060,13 +4066,13 @@
         <v>2168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +4087,10 @@
         <v>426228</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4099,7 +4105,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -4111,10 +4117,10 @@
         <v>924805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4191,7 +4197,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4200,13 +4206,13 @@
         <v>2531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4215,13 +4221,13 @@
         <v>2531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4245,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -4251,13 +4257,13 @@
         <v>580227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
@@ -4266,13 +4272,13 @@
         <v>1136068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4340,13 +4346,13 @@
         <v>7946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4355,13 +4361,13 @@
         <v>15015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4370,13 +4376,13 @@
         <v>22962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4397,13 @@
         <v>716044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>1127</v>
@@ -4406,13 +4412,13 @@
         <v>731839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>1784</v>
@@ -4421,13 +4427,13 @@
         <v>1447882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,7 +4489,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4495,13 +4501,13 @@
         <v>18163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4510,13 +4516,13 @@
         <v>18018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4525,13 +4531,13 @@
         <v>36181</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4552,13 @@
         <v>580923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
@@ -4561,13 +4567,13 @@
         <v>574174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>1608</v>
@@ -4576,13 +4582,13 @@
         <v>1155097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,7 +4644,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4650,13 +4656,13 @@
         <v>84300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -4665,13 +4671,13 @@
         <v>135535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -4680,13 +4686,13 @@
         <v>219835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4707,13 @@
         <v>610976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>1443</v>
@@ -4716,13 +4722,13 @@
         <v>890637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>2327</v>
@@ -4731,13 +4737,13 @@
         <v>1501613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4811,13 @@
         <v>112577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>312</v>
@@ -4820,13 +4826,13 @@
         <v>173896</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -4835,13 +4841,13 @@
         <v>286474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4862,13 @@
         <v>3267691</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>5045</v>
@@ -4871,13 +4877,13 @@
         <v>3627614</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>8245</v>
@@ -4886,13 +4892,13 @@
         <v>6895304</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4954,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A05813-7006-4EA5-95F1-053BA85C8549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70613C8D-4299-4FE4-B3FA-4F26B7C21012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{747C4A01-30DA-45A2-8D33-081146C0EDB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CCE5517-5074-4531-BB80-C59317C66E27}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="296">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,805 +91,823 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
   </si>
   <si>
     <t>97,17%</t>
@@ -1319,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AF779C-5528-4B9C-B561-3F1D57A41540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E728B4-1A9B-4764-A42B-A1D6AE3ED3F0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1768,13 +1786,13 @@
         <v>2905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1783,13 +1801,13 @@
         <v>6942</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1822,13 @@
         <v>677826</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>664</v>
@@ -1819,10 +1837,10 @@
         <v>706669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1834,13 +1852,13 @@
         <v>1384495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,7 +1914,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1908,13 +1926,13 @@
         <v>2402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1923,13 +1941,13 @@
         <v>3184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1941,10 +1959,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,10 +1977,10 @@
         <v>612215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1974,13 +1992,13 @@
         <v>611080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>1082</v>
@@ -1992,10 +2010,10 @@
         <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,7 +2069,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2063,13 +2081,13 @@
         <v>9649</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2078,13 +2096,13 @@
         <v>13760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2093,13 +2111,13 @@
         <v>23409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2132,13 @@
         <v>419780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>393</v>
@@ -2129,13 +2147,13 @@
         <v>434040</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>777</v>
@@ -2144,13 +2162,13 @@
         <v>853820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2224,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2218,13 +2236,13 @@
         <v>50960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2233,13 +2251,13 @@
         <v>73158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -2248,13 +2266,13 @@
         <v>124119</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2287,13 @@
         <v>508677</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>628</v>
@@ -2284,13 +2302,13 @@
         <v>669817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>1086</v>
@@ -2299,13 +2317,13 @@
         <v>1178493</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2391,13 @@
         <v>67982</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -2388,13 +2406,13 @@
         <v>94052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2403,13 +2421,13 @@
         <v>162034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2442,13 @@
         <v>3358797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>3211</v>
@@ -2439,28 +2457,28 @@
         <v>3461046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>6359</v>
       </c>
       <c r="N23" s="7">
-        <v>6819844</v>
+        <v>6819843</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2520,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -2516,7 +2534,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A817094-4C3D-4720-8746-C1C346C011A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2F92FF-787A-4EC4-AC7B-D98EF6033DEA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2555,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2668,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2683,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2698,7 +2716,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2731,7 +2749,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2746,7 +2764,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2823,7 +2841,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2838,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2847,13 +2865,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,7 +2889,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2886,7 +2904,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2898,10 +2916,10 @@
         <v>1153055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -2978,7 +2996,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2987,13 +3005,13 @@
         <v>1766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3002,13 +3020,13 @@
         <v>1766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3044,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3038,10 +3056,10 @@
         <v>659620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3053,10 +3071,10 @@
         <v>1328717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3115,7 +3133,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3133,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3142,13 +3160,13 @@
         <v>3186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3157,13 +3175,13 @@
         <v>3186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,7 +3199,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3193,25 +3211,25 @@
         <v>645891</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>1181</v>
       </c>
       <c r="N14" s="7">
-        <v>1291940</v>
+        <v>1291939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>35</v>
@@ -3256,7 +3274,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -3270,7 +3288,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3282,13 +3300,13 @@
         <v>3127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3297,13 +3315,13 @@
         <v>11554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3312,13 +3330,13 @@
         <v>14680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3351,13 @@
         <v>474791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -3348,13 +3366,13 @@
         <v>485295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -3363,13 +3381,13 @@
         <v>960087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3443,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3437,13 +3455,13 @@
         <v>32261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -3452,13 +3470,13 @@
         <v>62975</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -3467,13 +3485,13 @@
         <v>95236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3506,13 @@
         <v>559067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>601</v>
@@ -3503,13 +3521,13 @@
         <v>714956</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>1193</v>
@@ -3518,13 +3536,13 @@
         <v>1274023</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3610,13 @@
         <v>35388</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -3607,13 +3625,13 @@
         <v>80465</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -3622,13 +3640,13 @@
         <v>115853</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3661,13 @@
         <v>3358962</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H23" s="7">
         <v>3268</v>
@@ -3658,13 +3676,13 @@
         <v>3464077</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>6461</v>
@@ -3673,7 +3691,7 @@
         <v>6823039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>201</v>
@@ -3735,7 +3753,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D547C2-AAD5-493C-9CED-C54AC043053B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD78F5B9-F514-4A6D-B86B-272F23B813C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3896,13 +3914,13 @@
         <v>2797</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3911,13 +3929,13 @@
         <v>2797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3947,10 +3965,10 @@
         <v>352160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3962,10 +3980,10 @@
         <v>729839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4036,13 +4054,13 @@
         <v>2168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4057,7 +4075,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4066,13 +4084,13 @@
         <v>2168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,10 +4105,10 @@
         <v>426228</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4105,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -4117,10 +4135,10 @@
         <v>924805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4197,7 +4215,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4206,13 +4224,13 @@
         <v>2531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4221,13 +4239,13 @@
         <v>2531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,7 +4263,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -4257,13 +4275,13 @@
         <v>580227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
@@ -4272,13 +4290,13 @@
         <v>1136068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4352,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4346,13 +4364,13 @@
         <v>7946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4361,13 +4379,13 @@
         <v>15015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4376,13 +4394,13 @@
         <v>22962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4415,13 @@
         <v>716044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>1127</v>
@@ -4412,13 +4430,13 @@
         <v>731839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>1784</v>
@@ -4427,13 +4445,13 @@
         <v>1447882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,7 +4507,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4501,13 +4519,13 @@
         <v>18163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4516,13 +4534,13 @@
         <v>18018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4531,13 +4549,13 @@
         <v>36181</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4570,13 @@
         <v>580923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
@@ -4567,13 +4585,13 @@
         <v>574174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>1608</v>
@@ -4582,13 +4600,13 @@
         <v>1155097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4662,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4656,13 +4674,13 @@
         <v>84300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -4671,13 +4689,13 @@
         <v>135535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -4686,13 +4704,13 @@
         <v>219835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4725,13 @@
         <v>610976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>1443</v>
@@ -4722,13 +4740,13 @@
         <v>890637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>2327</v>
@@ -4737,13 +4755,13 @@
         <v>1501613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4829,13 @@
         <v>112577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>312</v>
@@ -4826,13 +4844,13 @@
         <v>173896</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -4841,13 +4859,13 @@
         <v>286474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4880,13 @@
         <v>3267691</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>5045</v>
@@ -4877,13 +4895,13 @@
         <v>3627614</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>8245</v>
@@ -4892,13 +4910,13 @@
         <v>6895304</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,7 +4972,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70613C8D-4299-4FE4-B3FA-4F26B7C21012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{554DA9F1-F0AA-4D80-884D-9B8021BDCA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CCE5517-5074-4531-BB80-C59317C66E27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC1F524-517B-4466-9ECB-EF79AA42497E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="288">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,03%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,97%</t>
+    <t>99,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,47%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -127,67 +127,73 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>98,92%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -196,7 +202,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -205,727 +211,697 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>96,48%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E728B4-1A9B-4764-A42B-A1D6AE3ED3F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39BE087-1633-4A1F-932D-1207B22E64AC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1786,13 +1762,13 @@
         <v>2905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1801,13 +1777,13 @@
         <v>6942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1798,13 @@
         <v>677826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>664</v>
@@ -1837,10 +1813,10 @@
         <v>706669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1852,10 +1828,10 @@
         <v>1384495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1914,7 +1890,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1926,13 +1902,13 @@
         <v>2402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1941,13 +1917,13 @@
         <v>3184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1959,10 +1935,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,10 +1953,10 @@
         <v>612215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1992,10 +1968,10 @@
         <v>611080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>61</v>
@@ -2013,7 +1989,7 @@
         <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,10 +2385,10 @@
         <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2421,13 +2397,13 @@
         <v>162034</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2418,13 @@
         <v>3358797</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>3211</v>
@@ -2457,13 +2433,13 @@
         <v>3461046</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="M23" s="7">
         <v>6359</v>
@@ -2472,13 +2448,13 @@
         <v>6819843</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2F92FF-787A-4EC4-AC7B-D98EF6033DEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC432BF5-3864-4CC1-957D-2032C14C3A60}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2573,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2686,7 +2662,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2701,7 +2677,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2716,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2710,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2749,7 +2725,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2764,7 +2740,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2841,7 +2817,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2856,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2865,13 +2841,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2865,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2904,7 +2880,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2916,10 +2892,10 @@
         <v>1153055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -2996,7 +2972,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3005,13 +2981,13 @@
         <v>1766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3020,13 +2996,13 @@
         <v>1766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3020,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3056,10 +3032,10 @@
         <v>659620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3071,10 +3047,10 @@
         <v>1328717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3133,7 +3109,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3151,7 +3127,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3160,13 +3136,13 @@
         <v>3186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3175,13 +3151,13 @@
         <v>3186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3175,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3211,13 +3187,13 @@
         <v>645891</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>1181</v>
@@ -3226,10 +3202,10 @@
         <v>1291939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>35</v>
@@ -3300,13 +3276,13 @@
         <v>3127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3315,13 +3291,13 @@
         <v>11554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3330,13 +3306,13 @@
         <v>14680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3327,13 @@
         <v>474791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -3366,13 +3342,13 @@
         <v>485295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -3381,13 +3357,13 @@
         <v>960087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3431,13 @@
         <v>32261</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -3470,13 +3446,13 @@
         <v>62975</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -3485,13 +3461,13 @@
         <v>95236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3482,13 @@
         <v>559067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
         <v>601</v>
@@ -3521,13 +3497,13 @@
         <v>714956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>1193</v>
@@ -3536,13 +3512,13 @@
         <v>1274023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3586,13 @@
         <v>35388</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -3625,13 +3601,13 @@
         <v>80465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -3640,13 +3616,13 @@
         <v>115853</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3637,13 @@
         <v>3358962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H23" s="7">
         <v>3268</v>
@@ -3676,13 +3652,13 @@
         <v>3464077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7">
         <v>6461</v>
@@ -3691,13 +3667,13 @@
         <v>6823039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3729,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3775,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD78F5B9-F514-4A6D-B86B-272F23B813C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751EEED-768A-4FCB-B760-9A27DC9D7452}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3792,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3905,7 +3881,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3914,13 +3890,13 @@
         <v>2797</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3929,13 +3905,13 @@
         <v>2797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,7 +3929,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3965,10 +3941,10 @@
         <v>352160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3980,10 +3956,10 @@
         <v>729839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4054,13 +4030,13 @@
         <v>2168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4075,7 +4051,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4084,13 +4060,13 @@
         <v>2168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,10 +4081,10 @@
         <v>426228</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4123,7 +4099,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -4135,10 +4111,10 @@
         <v>924805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4215,7 +4191,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4224,13 +4200,13 @@
         <v>2531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4239,13 +4215,13 @@
         <v>2531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,7 +4239,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -4275,13 +4251,13 @@
         <v>580227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
@@ -4290,13 +4266,13 @@
         <v>1136068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4328,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4364,13 +4340,13 @@
         <v>7946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4379,13 +4355,13 @@
         <v>15015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4394,13 +4370,13 @@
         <v>22962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4391,13 @@
         <v>716044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>1127</v>
@@ -4430,13 +4406,13 @@
         <v>731839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>1784</v>
@@ -4445,13 +4421,13 @@
         <v>1447882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4495,13 @@
         <v>18163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -4534,13 +4510,13 @@
         <v>18018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4549,13 +4525,13 @@
         <v>36181</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4546,13 @@
         <v>580923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
@@ -4585,13 +4561,13 @@
         <v>574174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>1608</v>
@@ -4600,13 +4576,13 @@
         <v>1155097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4650,13 @@
         <v>84300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -4689,13 +4665,13 @@
         <v>135535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -4704,13 +4680,13 @@
         <v>219835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4701,13 @@
         <v>610976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>1443</v>
@@ -4740,13 +4716,13 @@
         <v>890637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>2327</v>
@@ -4755,13 +4731,13 @@
         <v>1501613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4805,13 @@
         <v>112577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>312</v>
@@ -4844,13 +4820,13 @@
         <v>173896</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -4859,13 +4835,13 @@
         <v>286474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4856,13 @@
         <v>3267691</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>5045</v>
@@ -4895,13 +4871,13 @@
         <v>3627614</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>8245</v>
@@ -4910,13 +4886,13 @@
         <v>6895304</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,7 +4948,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{554DA9F1-F0AA-4D80-884D-9B8021BDCA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56115B9-C173-4274-89C4-4890C0F9AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC1F524-517B-4466-9ECB-EF79AA42497E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A566059B-0A1F-4E2C-8E26-C1D5F93FF392}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="325">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -118,7 +118,7 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -151,7 +151,7 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -196,7 +196,7 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -229,7 +229,7 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,25%</t>
@@ -286,61 +286,118 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -529,58 +586,106 @@
     <t>97,48%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -643,265 +748,271 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1424,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39BE087-1633-4A1F-932D-1207B22E64AC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C4AB17-0BBA-454F-8010-89AC3C5ADC39}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2206,10 +2317,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>50960</v>
+        <v>22103</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -2221,10 +2332,10 @@
         <v>85</v>
       </c>
       <c r="H19" s="7">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>73158</v>
+        <v>24822</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>86</v>
@@ -2236,10 +2347,10 @@
         <v>88</v>
       </c>
       <c r="M19" s="7">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>124119</v>
+        <v>46925</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>89</v>
@@ -2257,10 +2368,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>458</v>
+        <v>261</v>
       </c>
       <c r="D20" s="7">
-        <v>508677</v>
+        <v>287683</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>92</v>
@@ -2272,10 +2383,10 @@
         <v>94</v>
       </c>
       <c r="H20" s="7">
-        <v>628</v>
+        <v>321</v>
       </c>
       <c r="I20" s="7">
-        <v>669817</v>
+        <v>329174</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>95</v>
@@ -2287,10 +2398,10 @@
         <v>97</v>
       </c>
       <c r="M20" s="7">
-        <v>1086</v>
+        <v>582</v>
       </c>
       <c r="N20" s="7">
-        <v>1178493</v>
+        <v>616857</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>98</v>
@@ -2308,10 +2419,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2323,10 +2434,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2338,10 +2449,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2355,55 +2466,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>67982</v>
+        <v>28857</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>94052</v>
+        <v>48336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>162034</v>
+        <v>77194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,49 +2523,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3148</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7">
-        <v>3358797</v>
+        <v>220994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7">
-        <v>3211</v>
+        <v>307</v>
       </c>
       <c r="I23" s="7">
-        <v>3461046</v>
+        <v>340643</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
-        <v>6359</v>
+        <v>504</v>
       </c>
       <c r="N23" s="7">
-        <v>6819843</v>
+        <v>561636</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,63 +2574,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7">
+        <v>67982</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="7">
+        <v>85</v>
+      </c>
+      <c r="I25" s="7">
+        <v>94052</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="7">
+        <v>146</v>
+      </c>
+      <c r="N25" s="7">
+        <v>162034</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3148</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3358797</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3211</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3461046</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6359</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6819843</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2532,8 +2799,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC432BF5-3864-4CC1-957D-2032C14C3A60}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3497FB1-B64A-4784-99F9-727B5C32AEA0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2549,7 +2816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2677,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2692,7 +2959,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,7 +2992,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2740,7 +3007,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2817,7 +3084,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2832,7 +3099,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2841,13 +3108,13 @@
         <v>985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +3132,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2880,7 +3147,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2892,10 +3159,10 @@
         <v>1153055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -2972,7 +3239,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2981,13 +3248,13 @@
         <v>1766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2996,13 +3263,13 @@
         <v>1766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3287,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3032,10 +3299,10 @@
         <v>659620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3047,10 +3314,10 @@
         <v>1328717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3127,7 +3394,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3142,7 +3409,7 @@
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3151,13 +3418,13 @@
         <v>3186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3442,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3190,7 +3457,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>47</v>
@@ -3202,10 +3469,10 @@
         <v>1291939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>35</v>
@@ -3276,13 +3543,13 @@
         <v>3127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3291,13 +3558,13 @@
         <v>11554</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3306,13 +3573,13 @@
         <v>14680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3594,13 @@
         <v>474791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -3342,13 +3609,13 @@
         <v>485295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>844</v>
@@ -3357,10 +3624,10 @@
         <v>960087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>34</v>
@@ -3425,49 +3692,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7">
+        <v>13359</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="7">
+        <v>22</v>
+      </c>
+      <c r="I19" s="7">
+        <v>22847</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="7">
         <v>35</v>
       </c>
-      <c r="D19" s="7">
-        <v>32261</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="7">
-        <v>54</v>
-      </c>
-      <c r="I19" s="7">
-        <v>62975</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" s="7">
-        <v>89</v>
-      </c>
       <c r="N19" s="7">
-        <v>95236</v>
+        <v>36206</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,49 +3743,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>592</v>
+        <v>312</v>
       </c>
       <c r="D20" s="7">
-        <v>559067</v>
+        <v>320971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
-        <v>601</v>
+        <v>332</v>
       </c>
       <c r="I20" s="7">
-        <v>714956</v>
+        <v>354915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
-        <v>1193</v>
+        <v>644</v>
       </c>
       <c r="N20" s="7">
-        <v>1274023</v>
+        <v>675886</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,10 +3794,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -3542,10 +3809,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -3557,10 +3824,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3574,55 +3841,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>35388</v>
+        <v>18902</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>80465</v>
+        <v>40128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>115853</v>
+        <v>59030</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3898,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3193</v>
+        <v>280</v>
       </c>
       <c r="D23" s="7">
-        <v>3358962</v>
+        <v>238096</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
-        <v>3268</v>
+        <v>269</v>
       </c>
       <c r="I23" s="7">
-        <v>3464077</v>
+        <v>360041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
-        <v>6461</v>
+        <v>549</v>
       </c>
       <c r="N23" s="7">
-        <v>6823039</v>
+        <v>598137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,63 +3949,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35388</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="7">
+        <v>70</v>
+      </c>
+      <c r="I25" s="7">
+        <v>80465</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="7">
+        <v>108</v>
+      </c>
+      <c r="N25" s="7">
+        <v>115853</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3193</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3358962</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3268</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3464077</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6461</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6823039</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3751,8 +4174,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751EEED-768A-4FCB-B760-9A27DC9D7452}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F476CDA-21D5-441B-BA69-E07A75073DBE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3768,7 +4191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3881,37 +4304,37 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2797</v>
+        <v>2562</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2797</v>
+        <v>2562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +4346,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3938,13 +4361,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>352160</v>
+        <v>310638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3953,13 +4376,13 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>729839</v>
+        <v>710625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3974,7 +4397,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -3989,7 +4412,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -4004,7 +4427,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -4027,16 +4450,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2168</v>
+        <v>2260</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4051,22 +4474,22 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>2168</v>
+        <v>2260</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4501,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>426228</v>
+        <v>421287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4093,13 +4516,13 @@
         <v>460</v>
       </c>
       <c r="I8" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -4108,13 +4531,13 @@
         <v>761</v>
       </c>
       <c r="N8" s="7">
-        <v>924805</v>
+        <v>932791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4129,7 +4552,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -4144,7 +4567,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -4159,7 +4582,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -4191,37 +4614,37 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2531</v>
+        <v>2234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2531</v>
+        <v>2234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4656,13 @@
         <v>545</v>
       </c>
       <c r="D11" s="7">
-        <v>555841</v>
+        <v>534980</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -4248,31 +4671,31 @@
         <v>842</v>
       </c>
       <c r="I11" s="7">
-        <v>580227</v>
+        <v>539565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
       </c>
       <c r="N11" s="7">
-        <v>1136068</v>
+        <v>1074545</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4707,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555841</v>
+        <v>534980</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -4299,7 +4722,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -4314,7 +4737,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138599</v>
+        <v>1076779</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -4337,46 +4760,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>7946</v>
+        <v>7688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>15015</v>
+        <v>12487</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>22962</v>
+        <v>20175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,46 +4811,46 @@
         <v>657</v>
       </c>
       <c r="D14" s="7">
-        <v>716044</v>
+        <v>880098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>1127</v>
       </c>
       <c r="I14" s="7">
-        <v>731839</v>
+        <v>700011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>1784</v>
       </c>
       <c r="N14" s="7">
-        <v>1447882</v>
+        <v>1580110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,7 +4862,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -4454,7 +4877,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -4469,7 +4892,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4492,46 +4915,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>18163</v>
+        <v>17026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>18018</v>
+        <v>16587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
       </c>
       <c r="N16" s="7">
-        <v>36181</v>
+        <v>33613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,46 +4966,46 @@
         <v>641</v>
       </c>
       <c r="D17" s="7">
-        <v>580923</v>
+        <v>543211</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
       </c>
       <c r="I17" s="7">
-        <v>574174</v>
+        <v>527023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>1608</v>
       </c>
       <c r="N17" s="7">
-        <v>1155097</v>
+        <v>1070234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,7 +5017,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -4609,7 +5032,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592192</v>
+        <v>543610</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -4624,7 +5047,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191278</v>
+        <v>1103847</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -4644,49 +5067,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>84300</v>
+        <v>29774</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="I19" s="7">
-        <v>135535</v>
+        <v>39161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7">
-        <v>405</v>
+        <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>219835</v>
+        <v>68935</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,49 +5118,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>884</v>
+        <v>520</v>
       </c>
       <c r="D20" s="7">
-        <v>610976</v>
+        <v>336970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
-        <v>1443</v>
+        <v>747</v>
       </c>
       <c r="I20" s="7">
-        <v>890637</v>
+        <v>568774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>2327</v>
+        <v>1267</v>
       </c>
       <c r="N20" s="7">
-        <v>1501613</v>
+        <v>905744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,10 +5169,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>695276</v>
+        <v>366744</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -4761,10 +5184,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026172</v>
+        <v>607935</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -4776,10 +5199,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721448</v>
+        <v>974679</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -4793,55 +5216,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="D22" s="7">
-        <v>112577</v>
+        <v>48697</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="I22" s="7">
-        <v>173896</v>
+        <v>83761</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
-        <v>483</v>
+        <v>278</v>
       </c>
       <c r="N22" s="7">
-        <v>286474</v>
+        <v>132458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,49 +5273,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3200</v>
+        <v>364</v>
       </c>
       <c r="D23" s="7">
-        <v>3267691</v>
+        <v>233198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
-        <v>5045</v>
+        <v>696</v>
       </c>
       <c r="I23" s="7">
-        <v>3627614</v>
+        <v>342070</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
-        <v>8245</v>
+        <v>1060</v>
       </c>
       <c r="N23" s="7">
-        <v>6895304</v>
+        <v>575268</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,63 +5324,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281895</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707726</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>171</v>
+      </c>
+      <c r="D25" s="7">
+        <v>105444</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H25" s="7">
+        <v>312</v>
+      </c>
+      <c r="I25" s="7">
+        <v>156792</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M25" s="7">
+        <v>483</v>
+      </c>
+      <c r="N25" s="7">
+        <v>262236</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3200</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3349732</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5045</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3499585</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8245</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6849317</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3380268</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3455176</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801510</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656377</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>8728</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181778</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="N27" s="7">
+        <v>7111553</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
